--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -624,6 +624,36 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -809,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -819,7 +849,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -921,7 +951,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -930,17 +960,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1720,50 +1750,50 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>212</v>
       </c>
@@ -1789,75 +1819,115 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="C111" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>228</v>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -564,6 +564,18 @@
   </si>
   <si>
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
@@ -846,10 +858,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B85:C85 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -964,13 +976,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1702,7 +1714,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>189</v>
       </c>
@@ -1710,7 +1722,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>191</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>193</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1790,26 +1802,26 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="0" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>216</v>
       </c>
@@ -1859,23 +1871,23 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>232</v>
@@ -1883,16 +1895,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
         <v>234</v>
       </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
         <v>235</v>
       </c>
@@ -1900,28 +1909,47 @@
         <v>236</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>238</v>
+      </c>
       <c r="B114" s="0" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>238</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -141,42 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readSigned(slaveId,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readBCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32Signed(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32BCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readFloat(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
@@ -906,10 +870,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C13:C18 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B99:C99 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1024,13 +988,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99:C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1120,8 +1084,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1145,165 +1109,165 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>52</v>
+      <c r="B19" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="B27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>77</v>
+      <c r="B30" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>79</v>
+      <c r="B31" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>83</v>
+      </c>
       <c r="C32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="B33" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="C33" s="0" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="B34" s="0" t="s">
         <v>87</v>
       </c>
@@ -1335,47 +1299,53 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="B38" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C42" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>105</v>
       </c>
@@ -1383,54 +1353,48 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1477,8 +1441,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1487,202 +1451,202 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1"/>
+      <c r="B59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1"/>
-      <c r="B65" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="0" t="s">
+      <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B69" s="0" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="1" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="1" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
         <v>169</v>
       </c>
@@ -1690,7 +1654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
         <v>171</v>
       </c>
@@ -1698,7 +1662,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
         <v>173</v>
       </c>
@@ -1706,7 +1670,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
         <v>175</v>
       </c>
@@ -1714,7 +1678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>177</v>
       </c>
@@ -1786,7 +1750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1794,7 +1758,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>197</v>
       </c>
@@ -1834,7 +1798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
         <v>207</v>
       </c>
@@ -1842,7 +1806,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
         <v>209</v>
       </c>
@@ -1882,58 +1846,58 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>219</v>
+      </c>
       <c r="B104" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="B110" s="0" t="s">
         <v>232</v>
       </c>
@@ -1951,117 +1915,69 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="B116" s="0" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
+      <c r="C119" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -143,6 +143,42 @@
     <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
+    <t xml:space="preserve">readSigned(slaveId,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
   </si>
   <si>
@@ -404,6 +440,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
   </si>
   <si>
+    <t xml:space="preserve">powerReset([sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE resets the power counter of the Yocto-Watt module</t>
+  </si>
+  <si>
     <t xml:space="preserve">slider(c,v)</t>
   </si>
   <si>
@@ -414,6 +456,12 @@
   </si>
   <si>
     <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -870,10 +918,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B99:C99 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B64:C64 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -988,13 +1036,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99:C99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64:C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1084,8 +1132,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1109,165 +1157,165 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
         <v>87</v>
       </c>
@@ -1299,53 +1347,47 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="B43" s="0" t="s">
         <v>105</v>
       </c>
@@ -1353,48 +1395,54 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>107</v>
+      </c>
       <c r="B44" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1441,8 +1489,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1451,218 +1499,218 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
-      <c r="B59" s="0" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+      <c r="B67" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="C67" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="C71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
         <v>173</v>
       </c>
@@ -1670,7 +1718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
         <v>175</v>
       </c>
@@ -1678,7 +1726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>177</v>
       </c>
@@ -1686,7 +1734,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>179</v>
       </c>
@@ -1694,7 +1742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>181</v>
       </c>
@@ -1750,7 +1798,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1758,7 +1806,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
         <v>197</v>
       </c>
@@ -1814,7 +1862,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>211</v>
       </c>
@@ -1822,7 +1870,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
         <v>213</v>
       </c>
@@ -1846,138 +1894,202 @@
         <v>218</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="0" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C125" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C118" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>246</v>
+      <c r="C126" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="273">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -618,12 +618,6 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets the PID target set value SV given in C</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -970,10 +964,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B94:C94 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B58:C58 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1088,13 +1082,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94:C94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58:C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -2054,17 +2048,17 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>245</v>
+      </c>
       <c r="B117" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="B118" s="2" t="s">
         <v>248</v>
       </c>
@@ -2122,15 +2116,15 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>264</v>
@@ -2146,53 +2140,45 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="0" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>270</v>
-      </c>
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>271</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -428,12 +428,6 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
-    <t xml:space="preserve">yset(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -461,37 +455,13 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button(i,b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button(b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggles the state of the button</t>
+    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
   </si>
   <si>
     <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -964,10 +934,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B58:C58 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B32:B127 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1082,13 +1052,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58:C58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1147,7 +1117,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1601,90 +1571,95 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
@@ -1693,110 +1668,105 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="0" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="B80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2008,49 +1978,49 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>235</v>
+      </c>
       <c r="B112" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>245</v>
-      </c>
       <c r="B117" s="2" t="s">
         <v>246</v>
       </c>
@@ -2076,109 +2046,69 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>262</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -428,6 +428,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -455,7 +461,25 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the state of the button</t>
   </si>
   <si>
     <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
@@ -464,6 +488,12 @@
     <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
+  </si>
+  <si>
     <t xml:space="preserve">S7 Command</t>
   </si>
   <si>
@@ -588,6 +618,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
   </si>
   <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
@@ -934,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B32:B127 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B94:C94 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1052,13 +1088,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32:B127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94:C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1117,7 +1153,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1571,95 +1607,90 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="0" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-      <c r="B67" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B70" s="2" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
@@ -1668,105 +1699,110 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="0" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="A81" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>176</v>
+      </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,57 +2014,57 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="B112" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="0" t="s">
         <v>236</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="0" t="s">
         <v>242</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
         <v>248</v>
       </c>
@@ -2046,69 +2082,117 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="B124" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -566,18 +566,6 @@
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
   </si>
   <si>
-    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
   </si>
   <si>
@@ -636,36 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -851,17 +809,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="B85:C85 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -963,7 +921,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -972,17 +930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85:C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1714,7 +1672,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>189</v>
       </c>
@@ -1722,7 +1680,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>191</v>
       </c>
@@ -1730,7 +1688,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>193</v>
       </c>
@@ -1738,7 +1696,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>195</v>
       </c>
@@ -1762,66 +1720,66 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="B102" s="0" t="s">
         <v>216</v>
       </c>
@@ -1831,131 +1789,75 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>228</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -624,36 +624,6 @@
   </si>
   <si>
     <t xml:space="preserve">moves the background profile the indicated number of steps towards &lt;direction&gt;, with &lt;direction&gt; one of up, down, left, right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keyboard(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -839,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -849,7 +819,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -951,7 +921,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -960,17 +930,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1750,50 +1720,50 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>201</v>
+      </c>
       <c r="B95" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="B100" s="0" t="s">
         <v>212</v>
       </c>
@@ -1819,115 +1789,75 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" s="0" t="s">
         <v>218</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -630,30 +630,6 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -846,10 +822,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="95:95 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -964,13 +940,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="95:95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1758,42 +1734,42 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="B96" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="B100" s="0" t="s">
         <v>212</v>
       </c>
@@ -1827,101 +1803,69 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Scale factor, Slider value is multplied by this value.</t>
+    <t xml:space="preserve">Scale factor, Slider value is multiplied by this value.</t>
   </si>
   <si>
     <t xml:space="preserve">Min</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">COMMANDS</t>
   </si>
   <si>
-    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be subsituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB} will be substituted by the current ET, BT, time, ET background, BT background value in Serial/CallProgram/MODBUS/S7/WebSocket commands\n</t>
+    <t xml:space="preserve">tn:Note: "{}" can be used as a placeholder, it will be substituted by (value*factor + offset). In all slider command actions, but for IO, VOUT, S7 and RC Commands, the bound value is converted from a float to an int.\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tn:Note: The placeholders {ET}, {BT}, {time}, {ETB}, {BTB}, and {WEIGHTin} will be substituted by the current ET, BT, time, ET background, BT background value, and batch size (in g) in Serial/Artisan/CallProgram/MODBUS/S7/WebSocket commands\n</t>
   </si>
   <si>
     <t xml:space="preserve">tn:Note: commands can be sequenced, separated by semicolons like in “&lt;cmd1&gt;;&lt;cmd2&gt;;&lt;cmd3&gt;”\n</t>
@@ -143,6 +143,42 @@
     <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
   </si>
   <si>
+    <t xml:space="preserve">readSigned(slaveId,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(slaveID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
     <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
   </si>
   <si>
@@ -188,6 +224,12 @@
     <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
   </si>
   <si>
+    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
   </si>
   <si>
@@ -308,7 +350,7 @@
     <t xml:space="preserve">range(c,r[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 fo r5V and r=10 for 10V)</t>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
   </si>
   <si>
     <t xml:space="preserve">out(n,v[,sn])</t>
@@ -386,6 +428,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: turn channel c of the relay module off</t>
   </si>
   <si>
+    <t xml:space="preserve">yset(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE Relay Output: switches channel c of the relay module off (b=0) and on (b=1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">flip(c[,sn])</t>
   </si>
   <si>
@@ -398,6 +446,12 @@
     <t xml:space="preserve">YOCTOPUCE Relay Output: pulse the channel c on after a delay of delay milliseconds for the duration of duration milliseconds</t>
   </si>
   <si>
+    <t xml:space="preserve">powerReset([sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE resets the power counter of the Yocto-Watt module</t>
+  </si>
+  <si>
     <t xml:space="preserve">slider(c,v)</t>
   </si>
   <si>
@@ -407,7 +461,37 @@
     <t xml:space="preserve">button(i,c,b[,sn])</t>
   </si>
   <si>
-    <t xml:space="preserve">switches channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+    <t xml:space="preserve">switches PHIDGET Binary Output channel c off (b=0) and on (b=1) and sets button i to pressed or normal depending on the value b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(i,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button i to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets button to pressed if value b is yes, true, t, or 1, otherwise to normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggles the state of the button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santoker(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends integer &lt;value&gt; to &lt;target&gt; register specified by as byte in hex notation like “fa” via the Santoker Network protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaleido(&lt;target&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends &lt;value&gt; to &lt;target&gt; via the Kaleido Serial or Network protocol</t>
   </si>
   <si>
     <t xml:space="preserve">S7 Command</t>
@@ -536,6 +620,12 @@
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
+    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets the PID target set value SV given in C</t>
+  </si>
+  <si>
     <t xml:space="preserve">pidRS(&lt;rs&gt;)</t>
   </si>
   <si>
@@ -566,6 +656,18 @@
     <t xml:space="preserve">shows message &lt;msg&gt; in the message line</t>
   </si>
   <si>
+    <t xml:space="preserve">notifications(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables notifications; while disabled issued notifications are ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify(&lt;title&gt;,[&lt;msg&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sends notification with title &lt;title&gt; and optional message &lt;msg&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">setCanvasColor(&lt;color&gt;)</t>
   </si>
   <si>
@@ -630,6 +732,36 @@
   </si>
   <si>
     <t xml:space="preserve">enables/disables keyboard mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keepON(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enables/disables the Keep ON flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showCurve(&lt;name&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the curve indicated by &lt;name&gt; which is one of { ET, BT, DeltaET, DeltaBT, BackgroundET, BackgroundBT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showExtraCurve(&lt;extra_device&gt;,&lt;curve&gt;,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the &lt;curve&gt; (one of {T1,T2}) of the zero-based &lt;extra_device&gt; number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showEvents(&lt;event_type&gt;, &lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of &lt;event_type&gt; in [1,..,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showBackgroundEvents(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shows/hides the events of the background profile</t>
   </si>
   <si>
     <t xml:space="preserve">RC Command</t>
@@ -723,7 +855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,6 +877,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -789,7 +929,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,7 +938,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="95:95 B6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -940,15 +1088,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="95:95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
   </cols>
   <sheetData>
@@ -1005,7 +1153,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1013,7 +1161,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1021,7 +1169,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1029,15 +1177,15 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1045,7 +1193,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1053,7 +1201,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1061,182 +1209,182 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C26" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+    <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -1244,418 +1392,421 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="0" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>107</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C44" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
         <v>109</v>
       </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C45" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
         <v>111</v>
       </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="C46" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C47" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
-        <v>115</v>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
-      <c r="B58" s="0" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1"/>
+      <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1"/>
+      <c r="B74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1"/>
+      <c r="B76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1"/>
+      <c r="B77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -1663,7 +1814,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -1671,23 +1822,23 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -1695,7 +1846,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -1703,7 +1854,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -1711,7 +1862,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -1719,7 +1870,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="0" t="s">
@@ -1727,117 +1878,111 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>94</v>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -1845,27 +1990,209 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C131" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>230</v>
+      <c r="C132" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -934,10 +934,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -948,6 +944,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -970,10 +970,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="3:3 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
@@ -1091,10 +1091,10 @@
   <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
@@ -1111,7 +1111,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       <c r="A9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1169,7 +1169,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -1217,7 +1217,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -1260,7 +1260,7 @@
       <c r="A22" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -1268,7 +1268,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -1284,7 +1284,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -1311,7 +1311,7 @@
       <c r="A28" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -1349,7 +1349,7 @@
       <c r="A32" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -1360,7 +1360,7 @@
       <c r="A33" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       <c r="A34" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -1376,7 +1376,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -1400,7 +1400,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -1416,7 +1416,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -1451,7 +1451,7 @@
       <c r="A44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -1475,7 +1475,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -1494,7 +1494,7 @@
       <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -1502,7 +1502,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -1542,7 +1542,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -1558,7 +1558,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -1606,7 +1606,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -1614,15 +1614,15 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -1654,7 +1654,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -1662,28 +1662,28 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="4"/>
+      <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="4"/>
+      <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -1691,55 +1691,55 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="4"/>
+      <c r="B74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="4"/>
+      <c r="B75" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="4"/>
+      <c r="B76" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="4"/>
+      <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="4"/>
+      <c r="B78" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       <c r="A79" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="1"/>
       <c r="C79" s="0" t="s">
         <v>78</v>
       </c>
@@ -1756,7 +1756,7 @@
       <c r="A80" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="1"/>
       <c r="C80" s="0" t="s">
         <v>80</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="A81" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="0" t="s">
         <v>175</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="A82" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -1790,7 +1790,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -1822,7 +1822,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -1830,7 +1830,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -1846,7 +1846,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -1870,7 +1870,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C94" s="0" t="s">
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C95" s="0" t="s">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -1902,7 +1902,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C98" s="0" t="s">
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C99" s="0" t="s">
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C100" s="0" t="s">
@@ -1926,7 +1926,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C103" s="0" t="s">
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C104" s="0" t="s">
@@ -1958,7 +1958,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
@@ -1966,7 +1966,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C106" s="0" t="s">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C107" s="0" t="s">
@@ -1982,7 +1982,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="0" t="s">
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C113" s="0" t="s">
@@ -2030,7 +2030,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C115" s="0" t="s">
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C116" s="0" t="s">
@@ -2054,7 +2054,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -2065,7 +2065,7 @@
       <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C119" s="0" t="s">
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C121" s="0" t="s">
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>256</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>258</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>260</v>
       </c>
       <c r="C124" s="0" t="s">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -2129,7 +2129,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C126" s="0" t="s">
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C127" s="0" t="s">
@@ -2145,7 +2145,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C128" s="0" t="s">
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C129" s="0" t="s">
@@ -2164,7 +2164,7 @@
       <c r="A130" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C130" s="0" t="s">
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C131" s="0" t="s">
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="0" t="s">
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C133" s="0" t="s">

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sliders" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Commands" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sliders" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Commands" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="286">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -290,6 +290,12 @@
     <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
   </si>
   <si>
+    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
+  </si>
+  <si>
     <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
   </si>
   <si>
@@ -554,12 +560,35 @@
     <t xml:space="preserve">Artisan Command</t>
   </si>
   <si>
-    <t xml:space="preserve">alarms(&lt;bool&gt;)</t>
-  </si>
-  <si>
     <t xml:space="preserve">enables/disables alarms</t>
   </si>
   <si>
+    <t xml:space="preserve">alarm(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">enables/disables alarm number </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">autoCHARGE(&lt;bool&gt;)</t>
   </si>
   <si>
@@ -608,19 +637,19 @@
     <t xml:space="preserve">sets the p-i-d parameters of the PID</t>
   </si>
   <si>
-    <t xml:space="preserve">adjustSV(&lt;int&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increases or decreases the current target SV value by &lt;int&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pidSV(&lt;int&gt;)</t>
+    <t xml:space="preserve">adjustSV(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increases or decreases the current target SV value by &lt;float&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pidSV(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV</t>
   </si>
   <si>
-    <t xml:space="preserve">pidSVC(&lt;int&gt;)</t>
+    <t xml:space="preserve">pidSVC(&lt;float&gt;)</t>
   </si>
   <si>
     <t xml:space="preserve">sets the PID target set value SV given in C</t>
@@ -696,6 +725,120 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ramp(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">toggles playback ramping per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">quantifier(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">activate/deactivate quantification per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setBatchSize(&lt;float&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set the batch size to the given value. If the value is negative, the batch size is taken from the background profile, if any is loaded</t>
   </si>
   <si>
     <t xml:space="preserve">openProperties</t>
@@ -929,24 +1072,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,119 +1109,225 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="3:3 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B35:C35 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1084,1120 +1337,1165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="0" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
-      <c r="B72" s="1" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
-      <c r="B74" s="1" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4"/>
-      <c r="B75" s="1" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
-      <c r="B76" s="1" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5"/>
+      <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
-      <c r="B77" s="1" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5"/>
+      <c r="B77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
-      <c r="B78" s="1" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5"/>
+      <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5"/>
+      <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="0" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" s="0" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="0" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="0" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="0" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="0" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="0" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C117" s="0" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="s">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="s">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="s">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="s">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="s">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="B124" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C124" s="0" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C125" s="0" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="s">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="0" t="s">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="s">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="s">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C132" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>274</v>
+      <c r="C138" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="293">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t xml:space="preserve">sets playback mode to 0: off, 1: time, 2: BT, 3: ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playbackdropmode(&lt;int&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets playback DROP mode to 0: off, 1: time, 2: BT, 3: ET</t>
   </si>
   <si>
     <t xml:space="preserve">playback(n,&lt;bool&gt;)</t>
@@ -974,6 +980,21 @@
   </si>
   <si>
     <t xml:space="preserve">for YOCTOPUCE RC modules: with r an int in %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stepper Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: set the target position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rescale(ch,val[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: set the rescale factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET Stepper Motors: engage (b=1) or disengage (b = 0)</t>
   </si>
   <si>
     <t xml:space="preserve">WebSocket Command</t>
@@ -1072,7 +1093,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1091,10 +1112,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1223,21 +1240,21 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B35:C35 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="109:109 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1245,7 +1262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1261,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,7 +1318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,7 +1326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1341,49 +1358,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35:C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A109" activeCellId="0" sqref="109:109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1421,7 +1438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1445,7 +1462,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +1470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1469,7 +1486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -1477,7 +1494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1493,7 +1510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1509,7 +1526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
         <v>61</v>
       </c>
@@ -1528,7 +1545,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1536,7 +1553,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1544,7 +1561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
@@ -1552,7 +1569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1571,7 +1588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1582,7 +1599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -1590,7 +1607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -1609,7 +1626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -1617,7 +1634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -1628,7 +1645,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
@@ -1636,7 +1653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="2" t="s">
         <v>91</v>
       </c>
@@ -1644,7 +1661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
         <v>93</v>
       </c>
@@ -1652,7 +1669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="2" t="s">
         <v>95</v>
       </c>
@@ -1660,7 +1677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="2" t="s">
         <v>97</v>
       </c>
@@ -1668,7 +1685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="2" t="s">
         <v>99</v>
       </c>
@@ -1676,7 +1693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="2" t="s">
         <v>101</v>
       </c>
@@ -1684,7 +1701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
@@ -1692,7 +1709,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="2" t="s">
         <v>105</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="2" t="s">
         <v>107</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
@@ -1727,7 +1744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
         <v>114</v>
       </c>
@@ -1735,7 +1752,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2" t="s">
         <v>116</v>
       </c>
@@ -1743,7 +1760,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -1751,7 +1768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -1762,7 +1779,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
         <v>121</v>
       </c>
@@ -1770,7 +1787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
         <v>123</v>
       </c>
@@ -1778,7 +1795,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
         <v>125</v>
       </c>
@@ -1786,7 +1803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
         <v>127</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
@@ -1802,7 +1819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
         <v>131</v>
       </c>
@@ -1810,7 +1827,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
         <v>133</v>
       </c>
@@ -1818,7 +1835,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
         <v>135</v>
       </c>
@@ -1826,7 +1843,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
         <v>137</v>
       </c>
@@ -1834,7 +1851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
         <v>139</v>
       </c>
@@ -1842,7 +1859,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
         <v>141</v>
       </c>
@@ -1850,7 +1867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
         <v>143</v>
       </c>
@@ -1858,7 +1875,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
         <v>145</v>
       </c>
@@ -1866,7 +1883,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
@@ -1874,15 +1891,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
         <v>151</v>
       </c>
@@ -1890,7 +1907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
         <v>153</v>
       </c>
@@ -1898,7 +1915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="s">
         <v>34</v>
       </c>
@@ -1906,7 +1923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
         <v>155</v>
       </c>
@@ -1914,7 +1931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
         <v>157</v>
       </c>
@@ -1922,28 +1939,26 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
+    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="2" t="s">
         <v>36</v>
       </c>
@@ -1951,60 +1966,55 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
+    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
+    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5"/>
+    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5"/>
+    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>175</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>176</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>178</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
         <v>180</v>
       </c>
@@ -2047,7 +2057,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
         <v>182</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
         <v>184</v>
       </c>
@@ -2063,7 +2073,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
         <v>34</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
         <v>186</v>
       </c>
@@ -2079,7 +2089,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
         <v>188</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
         <v>190</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
         <v>192</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
         <v>194</v>
       </c>
@@ -2111,7 +2121,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
         <v>196</v>
       </c>
@@ -2119,7 +2129,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
         <v>198</v>
       </c>
@@ -2127,7 +2137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
         <v>200</v>
       </c>
@@ -2135,7 +2145,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
         <v>202</v>
       </c>
@@ -2143,7 +2153,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
         <v>204</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
         <v>206</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
         <v>208</v>
       </c>
@@ -2167,7 +2177,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
         <v>210</v>
       </c>
@@ -2175,7 +2185,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
         <v>212</v>
       </c>
@@ -2183,7 +2193,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
         <v>214</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
         <v>216</v>
       </c>
@@ -2199,7 +2209,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
         <v>218</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
         <v>220</v>
       </c>
@@ -2215,7 +2225,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
         <v>222</v>
       </c>
@@ -2223,7 +2233,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
         <v>224</v>
       </c>
@@ -2231,7 +2241,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
         <v>226</v>
       </c>
@@ -2239,15 +2249,16 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
@@ -2255,7 +2266,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
         <v>232</v>
       </c>
@@ -2263,7 +2274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
         <v>234</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
         <v>236</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
         <v>238</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
         <v>240</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
         <v>242</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
         <v>244</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
         <v>246</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
         <v>248</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
         <v>250</v>
       </c>
@@ -2335,7 +2346,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
         <v>252</v>
       </c>
@@ -2343,7 +2354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
         <v>254</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
         <v>256</v>
       </c>
@@ -2359,18 +2370,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C124" s="1" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
@@ -2378,7 +2389,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
         <v>263</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
         <v>265</v>
       </c>
@@ -2394,7 +2405,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
         <v>267</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
         <v>269</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
         <v>271</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
         <v>273</v>
       </c>
@@ -2426,23 +2437,23 @@
         <v>274</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
         <v>278</v>
       </c>
@@ -2450,47 +2461,82 @@
         <v>279</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="2" t="s">
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>285</v>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/eventsliders.xlsx
+++ b/doc/help_dialogs/Input_files/eventsliders.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="296">
   <si>
     <t xml:space="preserve">EVENT CUSTOM SLIDERS</t>
   </si>
@@ -128,255 +128,422 @@
     <t xml:space="preserve">sleep(&lt;float&gt;)</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sleep: add a delay of </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;float&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">button(&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read(deviceID,register)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">reads register from device </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">deviceID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">readSigned(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readBCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 1 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32Signed(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read32BCD(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit register from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readFloat(deviceID,register)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads 2 16bit registers from device deviceID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(deviceID,register,value) or write([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPRECATED: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoil(deviceID,register,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coil: MODBUS function 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wcoils(deviceID,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write coils: MODBUS function 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mwrite(deviceID,register,andMask,orMask) or mwrite(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,andMask,orMask</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,value)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writem(deviceID,register,value) or writem(deviceID,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">writeBCD(</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) or writeBCD([</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">],..,[</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">deviceID,register,value</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit BCD encoded value to register of device with deviceID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeWord(deviceID,register,value) or writeWord([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeLong(deviceID,register,value) or writeLong([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writeSingle(deviceID,register,value) or writeSingle([deviceID,register,value],..,[deviceID,register,value])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTA Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A program/script path (absolute or relative)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start and external program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets heater to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sets fan to value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hottop Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuji Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled(c,b[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq(c,f[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duty(c,d[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">move(c,d,t[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOUT Command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">range(c,r[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">out(n,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vout(c,v[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cout(c[,sn])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
+  </si>
+  <si>
     <t xml:space="preserve">sleep: add a delay of &lt;float&gt; seconds</t>
   </si>
   <si>
-    <t xml:space="preserve">button(&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets calling button to “pressed” if argument is 1 or True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads register from slave slaveID using function 3 (Read Multiple Holding Registers). The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readSigned(slaveId,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readBCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 1 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as unsigned integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32Signed(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as signed integer. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read32BCD(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit register from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as BCD. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readFloat(slaveID,register)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reads 2 16bit registers from slave slaveID using function 3 (Read Multiple Holding Registers) interpreted as float. The result is bound to the placeholder `_` and thus can be accessed in later commands.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(slaveId,register,value) or write([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deprecated: use writeSingle for MODBUS function 6 (int) or writeWord for function 16 (float)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoil(slaveId,register,&lt;bool&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coil: MODBUS function 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wcoils(slaveId,register,[&lt;bool&gt;,..,&lt;bool&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write coils: MODBUS function 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mwrite(slaveId,register,andMask,orMask) or mwrite(s,r,am,om,v)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mask write register: MODBUS function 22 or simulates function 22 with function 6 and the given value v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writem(slaveId,register,value) or writem(slaveId,register,[&lt;int&gt;,..,&lt;int&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeBCD(s,r,v) or writeBCD([s,r,v],..,[s,r,v])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit BCD encoded value v to register r of slave s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeWord(slaveId,register,value) or writeWord([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 32bit float to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeLong(slaveId,register,value) or writeLong([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 32bit integer to two 16bit int registers: MODBUS function 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">writeSingle(slaveId,register,value) or writeSingle([slaveId,register,value],..,[slaveId,register,value])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write 16bit integer to a single 16bit register: MODBUS function 6 (int)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTA Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert Data address : value, ex. 4701:1000 and sv is 100. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always multiply with 10 if value Unit: 0.1 / ex. 4719:0 stops heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A program/script path (absolute or relative)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start and external program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets heater to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sets fan to value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hottop Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">motor(n),solenoid(n),stirrer(n),heater(h),fan(f) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">with n={0 ,1},h={0,..100},f={0,..10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuji Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write(&lt;unitId&gt;,&lt;register&gt;,&lt;value&gt;)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWM Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency(&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Frequency: &lt;value&gt; in Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toggle(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulse(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET PWM Output: turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outhub(&lt;channel&gt;,&lt;value&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: &lt;value&gt; in [0-100]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">togglehub(&lt;channel&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output: toggles &lt;channel&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulsehub(&lt;channel&gt;,&lt;millis&gt;[,&lt;sn&gt;])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHIDGET HUB PWM Output:  turn &lt;channel&gt; on for &lt;millis&gt; milliseconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enabled(c,b[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: PWM running state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">freq(c,f[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM frequency to f (Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty(c,d[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: set PWM period with the duty cycle in % as a float [0.0-100.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">move(c,d,t[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOCTOPUCE PWM Output: changes progressively the PWM to the specified value over the given time interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOUT Command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">range(c,r[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: sets voltage voltage range (r=5 for r5V and r=10 for 10V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out(n,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for PHIDGET OUTPUT modules: set analog output channel n to output voltage value v in V (eg. 5.5 for 5.5V)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vout(c,v[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE VOLTAGE OUT modules with c the channel (1 or 2),v the voltage as float [0.0-10.0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cout(c[,sn])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for YOCTOPUCE CURRENT OUT modules with c the current as float [3.0-21.0]</t>
-  </si>
-  <si>
     <t xml:space="preserve">IO Command</t>
   </si>
   <si>
@@ -802,6 +969,42 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">from {1,2,3,4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">slider(n,&lt;bool&gt;)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">show/hide slider per event type </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> from {1,2,3,4}</t>
     </r>
   </si>
   <si>
@@ -1051,6 +1254,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1112,7 +1316,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,7 +1453,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1368,16 +1572,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,154 +1980,154 @@
         <v>34</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,34 +2135,34 @@
         <v>34</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1973,60 +2178,60 @@
         <v>36</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="1" t="s">
@@ -2035,7 +2240,7 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
@@ -2044,43 +2249,43 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,310 +2293,307 @@
         <v>34</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="B125" s="2" t="s">
         <v>261</v>
       </c>
@@ -2400,153 +2602,164 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="B138" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="B140" s="2" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B141" s="2" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>292</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
